--- a/data_config/GeneralEffect.xlsx
+++ b/data_config/GeneralEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="16605" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,11 +52,35 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-5 改变单位 buff 的层数</t>
+5 改变单位 buff 的层数
+11 驱散所有负面buff</t>
         </r>
       </text>
     </comment>
     <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据 triggerEventType 类型不同 参数意义也不同：
+5 : buffConfigId,buff 改变值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,35 +107,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Zxy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-根据 triggerEventType 类型不同 参数意义也不同：
-5 : buffConfigId,buff 改变值</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -128,12 +129,12 @@
     <t>triggerEventType</t>
   </si>
   <si>
+    <t>triggerParamList</t>
+  </si>
+  <si>
     <t>triggerTargetType</t>
   </si>
   <si>
-    <t>triggerParamList</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -158,16 +159,19 @@
     <t>触发的事件动作类型</t>
   </si>
   <si>
+    <t>触发参数列表</t>
+  </si>
+  <si>
     <t>触发目标类型</t>
   </si>
   <si>
-    <t>触发参数列表</t>
-  </si>
-  <si>
     <t>改变 buff 的层数lv1</t>
   </si>
   <si>
     <t>14100401,-1</t>
+  </si>
+  <si>
+    <t>驱散所有负面效果lv1</t>
   </si>
 </sst>
 </file>
@@ -344,12 +348,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -670,7 +680,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,16 +704,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -712,93 +722,96 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -813,7 +826,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1164,26 +1183,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="6" width="23.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="23.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1198,7 +1218,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1219,48 +1239,48 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -1269,20 +1289,41 @@
       <c r="B6">
         <v>27000101</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>27000201</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/GeneralEffect.xlsx
+++ b/data_config/GeneralEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16605" windowHeight="6945"/>
+    <workbookView windowWidth="18270" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>#</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>触发目标类型</t>
+  </si>
+  <si>
+    <t>萧玉 大招 驱散所有负面效果lv1</t>
   </si>
   <si>
     <t>改变 buff 的层数lv1</t>
@@ -1183,10 +1186,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1275,54 +1278,132 @@
       <c r="F4" s="3"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>27005101</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8">
+        <v>11</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="G5" s="9">
         <v>0</v>
       </c>
-      <c r="B6">
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16">
         <v>27000101</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
+    <row r="19" spans="2:7">
+      <c r="B19">
         <v>27000201</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="8">
         <v>11</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="9">
+      <c r="F19" s="3"/>
+      <c r="G19" s="9">
         <v>0</v>
       </c>
     </row>

--- a/data_config/GeneralEffect.xlsx
+++ b/data_config/GeneralEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18270" windowHeight="10890"/>
+    <workbookView windowWidth="16245" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>萧玉 大招 驱散所有负面效果lv1</t>
+  </si>
+  <si>
+    <t>随机技能 改变躲避伤害的 buff 的层数lv1</t>
+  </si>
+  <si>
+    <t>14801201,-1</t>
   </si>
   <si>
     <t>改变 buff 的层数lv1</t>
@@ -1189,7 +1195,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1313,12 +1319,28 @@
       <c r="F7" s="3"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="3:7">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
+    <row r="8" customFormat="1" spans="1:7">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>27801101</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="3"/>
@@ -1374,16 +1396,16 @@
         <v>27000101</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16" s="8">
         <v>5</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -1394,10 +1416,10 @@
         <v>27000201</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19" s="8">
         <v>11</v>

--- a/data_config/GeneralEffect.xlsx
+++ b/data_config/GeneralEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="10890"/>
+    <workbookView windowWidth="17190" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,8 @@
           </rPr>
           <t xml:space="preserve">
 5 改变单位 buff 的层数
-11 驱散所有负面buff</t>
+11 驱散所有负面buff
+20 附加普通攻击伤害（原伤害 + 本伤害 = 新结算伤害）</t>
         </r>
       </text>
     </comment>
@@ -76,7 +77,8 @@
           </rPr>
           <t xml:space="preserve">
 根据 triggerEventType 类型不同 参数意义也不同：
-5 : buffConfigId,buff 改变值</t>
+5 : buffConfigId,buff 改变值
+20 : 伤害计算效果 id，格式查看 CalculateEffect 表格</t>
         </r>
       </text>
     </comment>
@@ -112,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>#</t>
   </si>
@@ -163,6 +165,9 @@
   </si>
   <si>
     <t>触发目标类型</t>
+  </si>
+  <si>
+    <t>凤紫夕 被动：残血加普通攻击伤害</t>
   </si>
   <si>
     <t>萧玉 大招 驱散所有负面效果lv1</t>
@@ -1192,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1284,26 +1289,12 @@
       <c r="F4" s="3"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>27005101</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="8">
-        <v>11</v>
-      </c>
+    <row r="5" spans="3:7">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" s="3"/>
@@ -1319,28 +1310,12 @@
       <c r="F7" s="3"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" customFormat="1" spans="1:7">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>27801101</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
+    <row r="8" spans="3:7">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="3"/>
@@ -1349,12 +1324,25 @@
       <c r="F9" s="3"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="9"/>
+    <row r="10" spans="2:7">
+      <c r="B10">
+        <v>27002101</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4002201</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="3"/>
@@ -1391,41 +1379,211 @@
       <c r="F15" s="3"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16">
+    <row r="16" spans="3:7">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>27005101</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="8">
+        <v>11</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:7">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>27801101</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="8">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36">
         <v>27000101</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="C36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="8">
         <v>5</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19">
+    <row r="39" spans="2:7">
+      <c r="B39">
         <v>27000201</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="C39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="8">
         <v>11</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="9">
+      <c r="F39" s="3"/>
+      <c r="G39" s="9">
         <v>0</v>
       </c>
     </row>

--- a/data_config/GeneralEffect.xlsx
+++ b/data_config/GeneralEffect.xlsx
@@ -54,7 +54,7 @@
           <t xml:space="preserve">
 5 改变单位 buff 的层数
 11 驱散所有负面buff
-20 附加普通攻击伤害（原伤害 + 本伤害 = 新结算伤害）</t>
+</t>
         </r>
       </text>
     </comment>
@@ -78,7 +78,7 @@
           <t xml:space="preserve">
 根据 triggerEventType 类型不同 参数意义也不同：
 5 : buffConfigId,buff 改变值
-20 : 伤害计算效果 id，格式查看 CalculateEffect 表格</t>
+</t>
         </r>
       </text>
     </comment>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>触发目标类型</t>
-  </si>
-  <si>
-    <t>凤紫夕 被动：残血加普通攻击伤害</t>
   </si>
   <si>
     <t>萧玉 大招 驱散所有负面效果lv1</t>
@@ -1197,10 +1194,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1310,12 +1307,26 @@
       <c r="F7" s="3"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="3:7">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>27005101</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8">
+        <v>11</v>
+      </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="3"/>
@@ -1324,32 +1335,35 @@
       <c r="F9" s="3"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10">
-        <v>27002101</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4002201</v>
-      </c>
-      <c r="G10" s="9">
+    <row r="10" spans="3:7">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:7">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="9"/>
+      <c r="B11">
+        <v>27801101</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="8">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="3"/>
@@ -1400,190 +1414,41 @@
       <c r="F18" s="3"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="8"/>
+    <row r="19" spans="2:7">
+      <c r="B19">
+        <v>27000101</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="8">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
+        <v>27000201</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="8">
+        <v>11</v>
+      </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>27005101</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="8">
-        <v>11</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:7">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>27801101</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="8">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="3:7">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="3:7">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="3:7">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="3:7">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="3:7">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="3:7">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36">
-        <v>27000101</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="8">
-        <v>5</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39">
-        <v>27000201</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="8">
-        <v>11</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="9">
+      <c r="G22" s="9">
         <v>0</v>
       </c>
     </row>
